--- a/PSI II Lab 3/UCxNFR2.xlsx
+++ b/PSI II Lab 3/UCxNFR2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steror\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9090"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="54">
   <si>
     <r>
       <rPr>
@@ -77,9 +82,6 @@
     <t>UC 13</t>
   </si>
   <si>
-    <t>UC 14</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -203,40 +205,10 @@
     <t>NFR 42</t>
   </si>
   <si>
-    <t>NFR 43</t>
-  </si>
-  <si>
-    <t>NFR 44</t>
-  </si>
-  <si>
-    <t>NFR 45</t>
-  </si>
-  <si>
-    <t>NFR 46</t>
-  </si>
-  <si>
-    <t>NFR 47</t>
-  </si>
-  <si>
-    <t>NFR 48</t>
-  </si>
-  <si>
-    <t>NFR 49</t>
-  </si>
-  <si>
-    <t>NFR 50</t>
-  </si>
-  <si>
-    <t>NFR 51</t>
-  </si>
-  <si>
-    <t>NFR 52</t>
-  </si>
-  <si>
-    <t>NFR 53</t>
-  </si>
-  <si>
-    <t>NFR 54</t>
+    <t>NFR 2</t>
+  </si>
+  <si>
+    <t>NFR 19</t>
   </si>
 </sst>
 </file>
@@ -620,7 +592,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -628,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C13" sqref="B13:V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,96 +612,81 @@
     <col min="2" max="53" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -741,283 +698,289 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="N2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
+      <c r="R2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="T2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="N3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
+      <c r="R3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="T3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="R4" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="S4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="M5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="Q5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="S5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="M6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
+      <c r="R6" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="S6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="N7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
+      <c r="R7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="T7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1031,34 +994,35 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="N8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S8" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="T8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1074,35 +1038,36 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="N9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
+      <c r="R9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="T9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1115,1028 +1080,779 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="N10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
+      <c r="R10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="T10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+      <c r="N11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
+      <c r="R11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="T11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA11" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="S13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="U13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="V13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="B15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="K15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="M15" s="4"/>
       <c r="N15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P15" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="Q15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="U15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA15" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="V15" s="4"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="K16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="M16" s="4"/>
       <c r="N16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="Q16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="U16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA16" s="4"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="Q17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="U17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA17" s="4"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="V17" s="4"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="M18" s="4"/>
       <c r="N18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="Q18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="U18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA18" s="4"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="V18" s="4"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="Q19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="U19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA19" s="4"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="V19" s="4"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="M20" s="4"/>
       <c r="N20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="Q20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="U20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA20" s="4"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="V20" s="4"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="K21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="M21" s="4"/>
       <c r="N21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P21" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="Q21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="U21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA21" s="4"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="V21" s="4"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="K22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P22" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="Q22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="U22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA22" s="4"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="V22" s="4"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="K23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="M23" s="4"/>
       <c r="N23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="U23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA23" s="4"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA24" s="4"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA25" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="V23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
